--- a/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 4. komite.xlsx
+++ b/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 4. komite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E338"/>
+  <dimension ref="A1:H338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,21 @@
           <t>Tescilli Adresi</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Şirket Türü</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Meslek Grubu Numarası</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Meslek Grubu Adı</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -482,6 +497,21 @@
           <t>RÜSTEM MAHALLESİ 2018 SK. NO: 120/1 URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -505,6 +535,21 @@
           <t xml:space="preserve"> KEMALPAŞA  7412  NO:4 BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -528,6 +573,21 @@
           <t xml:space="preserve"> KEMALPAŞA MAH. 7412 SK.  NO: 4 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -551,6 +611,21 @@
           <t>AOSB MAHALLESİ 10006/1 SK.  NO: 19  İÇ KAPI NO: 0  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -574,6 +649,21 @@
           <t>MANSUROĞLU MAHALLESİ 269  SOK. NO:5  KAT:1 DAİRE:1 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -597,6 +687,21 @@
           <t>YAYLACIK                  MAHALLESİ ERDEM CADDESI NO:134  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -620,6 +725,21 @@
           <t>KOZAĞAÇ                   MAHALLESİ ÖZMEN CADDESI NO:39/A  HACI HABİL BLOK BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -643,6 +763,21 @@
           <t xml:space="preserve"> KAZIMDİRİK MAH. 296/2 SK. NO: 33 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -662,6 +797,21 @@
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -685,6 +835,21 @@
           <t xml:space="preserve"> FATİH MAH. 1207 SK.  NO: 1/1 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -708,6 +873,21 @@
           <t>IŞIKLAR MAHALLESİ AYDINLAR CAD. NO: 61 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -731,6 +911,21 @@
           <t xml:space="preserve"> YAYLACIK MAH. 163 SK. NO: 14 İÇ KAPI NO: 2 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -754,6 +949,21 @@
           <t xml:space="preserve"> MANSUROĞLU MAHALLESİ 288/4 SK.  NO: 10/44  BAYRAKLI/İZMİR  / </t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -777,6 +987,21 @@
           <t>YALI MAHALLESİ 6523 SOKAK NO: 32B  İÇ KAPI NO: 312 KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -800,6 +1025,21 @@
           <t>KARACAOĞLAN MAHALLESİ 6157/3 SOKAK NO: 2 B BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -823,6 +1063,21 @@
           <t>CÜNEYT BEY MAHALLESİ DOĞAN SK. NO: 37A MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -846,6 +1101,21 @@
           <t xml:space="preserve"> EGEMENLİK MAH. 6106/15 SK. NO: 4 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -869,6 +1139,21 @@
           <t xml:space="preserve"> EGEMENLİK MAH. 6106/51 SK. SS.GERİ KAZ.KOOP. SİTESİ  NO: 19 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -892,6 +1177,21 @@
           <t>SEKİZEYLÜL MAHALLESİ NO:108/D KÜPLÜCE ALTI KÜME EVLERİ KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -915,6 +1215,21 @@
           <t xml:space="preserve"> ATIFBEY MAH. 67 SK. NO: 33 İÇ KAPI NO: 59 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -938,6 +1253,21 @@
           <t xml:space="preserve"> GÖLCÜKLER MAH. CUMAOVASI CAD.  NO: 65/2 MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -961,6 +1291,21 @@
           <t xml:space="preserve"> İSMET KAPTAN MAH. ŞAİR EŞREF BUL. YÖRSAN İŞMERKEZİ BLOK  NO: 26  İÇ KAPI NO: 12 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -984,6 +1329,21 @@
           <t>DONANMACI                 MAHALLESİ YALI BUL. GÜLEÇ BLOK  NO: 238  İÇ KAPI NO: 2  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1007,6 +1367,21 @@
           <t>ADALET MAHALLESİ MANAS  BULVARI NO:39 İÇ KAPI NO: 3408 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1030,6 +1405,21 @@
           <t>LİMANREİS                 MAHALLESİ SERDAR SK. NO: 22  İÇ KAPI NO: 1 NARLIDERE       / İZMİR</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1053,6 +1443,21 @@
           <t xml:space="preserve"> ANKARA ASFALTI NO:375 NALDÖKEN KÖYÜ BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1076,6 +1481,21 @@
           <t>ŞİRİNTEPE MAHALLESİ ANADOLU CADDESI NO:778/A  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1099,6 +1519,21 @@
           <t>TUNA                      MAHALLESİ 1690 SK. NO:33/1  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1122,6 +1557,21 @@
           <t>ARAP HASAN MAHALLESİ İNÖNÜ CAD. NO: 335A  İÇ KAPI NO: A KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1145,6 +1595,21 @@
           <t>MANSUROĞLU MAHALLESİ 288/7  SOK. HASAN EFENDI SİTESİ  NO: 1  İÇ KAPI NO: 6 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1168,6 +1633,21 @@
           <t xml:space="preserve"> TEKELİ  10005  NO: NO:8  MENDERES/İZMİR  / </t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1191,6 +1671,21 @@
           <t>ŞEMİKLER                  MAHALLESİ 6182 SK. NO:95/1B  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1214,6 +1709,21 @@
           <t>KEMALPAŞA OSB MAHALLESİ SANAYİ CAD NO:34  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1237,6 +1747,21 @@
           <t>KARACAOĞLAN MAHALLESİ KEMALPAŞA CAD. NO:313  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1260,6 +1785,21 @@
           <t>ALAYBEY                   MAHALLESİ 1675 SK. NO:52/1  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1283,6 +1823,21 @@
           <t>TERSANE                   MAHALLESİ 1671 SOKAK NO:21/1  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1306,6 +1861,21 @@
           <t>ADALET MAHALLESİ MANAS BULV. FOLKART TOWERS BLOK  NO: 47B  İÇ KAPI NO:2809 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1329,6 +1899,21 @@
           <t xml:space="preserve"> ANKARA CAD. NO:81 BAYRAKLI TOWER KAT:21 DAİRE:143  / </t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1352,6 +1937,21 @@
           <t>MEVLANA                   MAHALLESİ 1724 SOKAK NO:18  DAİRE:3 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1375,6 +1975,21 @@
           <t xml:space="preserve"> KARACAOĞLAN MAH. 6157/3 SK. NO:2/D BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1398,6 +2013,21 @@
           <t>ALSANCAK MAHALLESİ 1478 SOKAK NO:8/52  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1421,6 +2051,21 @@
           <t>HARMANDALI GAZİ MUSTAFA KEMAL ATATÜRK MAHALLESİ 9 EYLÜL CAD.  NO: 65A ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1444,6 +2089,21 @@
           <t>KÖRFEZ MAHALLESİ 7384/5 SOK.  A Apt.  NO: 1/12 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1467,6 +2127,21 @@
           <t xml:space="preserve"> HIDIROĞLU SK. NO:5/A  NARLIDERE       / İZMİR</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1490,6 +2165,21 @@
           <t>BAHAR MAHALLESİ ESKİİZMİR CAD. NO:182  KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1513,6 +2203,21 @@
           <t>GAZİ MAHALLESİ ÖNDER CAD. NO: 91 A GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1536,6 +2241,21 @@
           <t>TUNA                      MAHALLESİ 1690 SK. NO: 24 A KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1559,6 +2279,21 @@
           <t>YENİGÜN                   MAHALLESİ FEVZİPAŞA BULVARI NO:116  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1578,6 +2313,21 @@
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1601,6 +2351,21 @@
           <t xml:space="preserve"> TORASAN MAH. ÇEŞME URLA İZMİR ASFALTI CAD.  NO: 362/1 URLA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1624,6 +2389,21 @@
           <t>ADALET MAH. MAHALLESİ MANAS BLV NO: 39  İÇ KAPI NO: 3408  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1647,6 +2427,21 @@
           <t xml:space="preserve"> KEMALPAŞA OSB MAH. İZMİR KEMALPAŞA ASFALTI CAD. NO: 19 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1670,6 +2465,21 @@
           <t xml:space="preserve"> ADALET MAHALLESİ MANAS BLV.  NO: 47 B/2601  BAYRAKLI/İZMİR  / </t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1693,6 +2503,21 @@
           <t xml:space="preserve"> 10020      İTOB ORGANİZE SANAYİ BÖLGESİ   NO:NO.30/ MENDERES/İZMİR  / </t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1716,6 +2541,21 @@
           <t xml:space="preserve"> CÜNEYTBEY MAH. İBRAHİM TURAN CAD. NO: 60A MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1739,6 +2579,21 @@
           <t xml:space="preserve"> 8 EYLÜL MAHALLESİ ÖTEYAKA MEVKİİ KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1762,6 +2617,21 @@
           <t>AKDENİZ MAHALLESİ AKDENİZ CADDESİ NO:1 REYENT IŞ MERKEZI BLOK  İÇ KAPI NO: 301  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1785,6 +2655,21 @@
           <t xml:space="preserve"> IŞIKLAR MAH. AYDINLAR CAD. NO: 61 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1808,6 +2693,21 @@
           <t>ADALET MAHALLESİ MANAS BUL. NO: 39  İÇ KAPI NO: 3408 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1831,6 +2731,21 @@
           <t xml:space="preserve"> SÜTÇÜLER MAHALLESİ AKEVLER CAD.  NO: 85 /1  KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1854,6 +2769,21 @@
           <t xml:space="preserve"> ARMUTLU 85.YIL CUMHURİYET MAH. HAYVANKIRAN KÜME EVLERİ NO: 79/2B İÇ KAPI NO: 1 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1877,6 +2807,21 @@
           <t xml:space="preserve"> ZAFER MAHALLESİ ÇİFTLİK SK. NO: 2/ BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1900,6 +2845,21 @@
           <t>BASIN SİTESİ MAHALLESİ 173/4 SOK. NO:24 FAİK BEY BLOK DAİRE:7 KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1923,6 +2883,21 @@
           <t>ABDİ İPEKÇİ MAHALLESİ 3713 SK. NO: 9B KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1946,6 +2921,21 @@
           <t xml:space="preserve"> İSMET KAPTAN MAH. SEZER DOĞAN SK. TERHAN IŞ MERKEZI NO: 20 İÇ KAPI NO: 2 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1969,6 +2959,21 @@
           <t xml:space="preserve"> GÖLCÜKLER MAHALLESİ SÜLEYMAN DEMİREL BLV.  NO: 70  MENDERES/İZMİR  / </t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1992,6 +2997,21 @@
           <t>KARACAOĞLAN MAHALLESİ BORNOVA CAD. ÖZTIM IŞ MERKEZI Apt.  NO: 9 /2D BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2015,6 +3035,21 @@
           <t>KARACAOĞLAN               MAHALLESİ 6172 SOKAK NO: 2/1  İÇ KAPI NO: 1 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2038,6 +3073,21 @@
           <t xml:space="preserve"> ADALET MAH. 2132/2 SK.  NO: 3  İÇ KAPI NO: 5 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2061,6 +3111,21 @@
           <t>YEŞİLÇAM                  MAHALLESİ KEMALPAŞA CADDESI İNAKO SİTESİ  NO: 352/10G BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2084,6 +3149,21 @@
           <t xml:space="preserve"> SEKİZ EYLÜL MAHALLESİ KÜPLÜCEALTI ( KÜME EVLER )  NO: 108 A/-  KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2107,6 +3187,21 @@
           <t xml:space="preserve"> HALİT ZİYA BULVARI NO:25  GENCER HAN KAT:6 DAİRE:601 KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2130,6 +3225,21 @@
           <t>MİMAR SİNAN               MAHALLESİ ŞAİR EŞREF BULVARI NO:70/7  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2153,6 +3263,21 @@
           <t xml:space="preserve"> ÇAMLIKULE MAH. GAZETECİ YAZAR İSMAİL SİVRİ BUL.  NO: 187A BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2176,6 +3301,21 @@
           <t xml:space="preserve"> CUMHURİYET BULV. NO:64  KAT:6 DAİRE:10 PASAPORT KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2199,6 +3339,21 @@
           <t>MANSUROĞLU MAHALLESİ 269/10  SOK. NO:3   İÇ KAPI NO: 5 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2222,6 +3377,21 @@
           <t>AOSB MAHALLESİ M.KEMAL ATATÜRK BLV. TERBAY Apt.  NO: 65 ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2245,6 +3415,21 @@
           <t xml:space="preserve"> YUNUS EMRE MAH. 7402/1 SK. NO: 2 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2268,6 +3453,21 @@
           <t>ALAÇATI MAHALLESİ 18041 SK. NO: 35 ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2291,6 +3491,21 @@
           <t xml:space="preserve">  URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2314,6 +3529,21 @@
           <t>ERGENE MAHALLESİ GEDİZ CAD. NO:24/23 9 NOLU ANA ÇOCUK SAĞ.VE AİLE PLAN.MER.BLOK BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2337,6 +3567,21 @@
           <t xml:space="preserve"> İSMET KAPTAN MAH. 1372 SK. TÜRKAY PLAZA NO: 13 İÇ KAPI NO: 7 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2360,6 +3605,21 @@
           <t xml:space="preserve"> ÇANAKKALE CAD. NO:1 7087/3 SOKAK İZTİM İŞ MERKEZİ PINARBAŞI BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2383,6 +3643,21 @@
           <t xml:space="preserve"> ÇINARLI MAH. ANKARA ASFALTI CAD. NO: 15 İÇ KAPI NO: 391 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2406,6 +3681,21 @@
           <t>EVKA-3                    MAHALLESİ 127 SOKAK ELİT BLOK  NO: 44  İÇ KAPI NO: 4 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2429,6 +3719,21 @@
           <t xml:space="preserve"> ŞEHİT FETHİBEY CADDESİ NO:49 PENPAR İŞHANI DAİRE:101 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2452,6 +3757,21 @@
           <t xml:space="preserve"> ADALET MAH. ANADOLU CAD. MEGAPOL TOWER NO: 41 İÇ KAPI NO: 081 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2475,6 +3795,21 @@
           <t>MANSUROĞLU MAHALLESİ 1593/1 SOK İNŞAAT Apt.  NO: 4/68 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2498,6 +3833,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2809 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2521,6 +3871,21 @@
           <t xml:space="preserve"> 10046 SOK. NO:16  A.O.S.B. ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2540,6 +3905,21 @@
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2563,6 +3943,21 @@
           <t xml:space="preserve"> ADALET MAH. ANADOLU CAD. MEGAPOL TOWER BLOK  NO: 41  İÇ KAPI NO: 081 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2586,6 +3981,21 @@
           <t>YALI                      MAHALLESİ 6523 SK. NO: 32 B/515 KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2609,6 +4019,21 @@
           <t xml:space="preserve"> YAKA MAH. AHMET BESİM UYAL CAD. NO: 269C URLA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2632,6 +4057,21 @@
           <t xml:space="preserve"> DEDEBAŞI MAHALLESİ 6052 SK.  NO: 2/5  KARŞIYAKA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2655,6 +4095,21 @@
           <t>ÇINARLI                   MAHALLESİ 1587/1 SOKAK NO:2/6 İÇ KAPI NO: 2101 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2678,6 +4133,21 @@
           <t>İSMET KAPTAN              MAHALLESİ GAZİ OSMAN PAŞA BULVARI NO:7/Z17  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2701,6 +4171,21 @@
           <t xml:space="preserve"> YILDIRIM BEYAZIT MAHALLESİ 5126 SK.  NO: 32 A  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2724,6 +4209,21 @@
           <t xml:space="preserve"> YILDIRIM BEYAZIT MAHALLESİ 5126 SK.  NO: 32 B  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2747,6 +4247,21 @@
           <t xml:space="preserve"> YALI MAHALLESİ 6518/6 SK. İNŞAAT APT.  NO: 1/6  KARŞIYAKA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2770,6 +4285,21 @@
           <t xml:space="preserve"> CÜNEYT BEY MAHALLESİ 639 SOK. NO:18/D NO:2 MENDERES/İZMİR  / </t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2793,6 +4323,21 @@
           <t xml:space="preserve"> CÜNEYTBEY MAH. İBRAHİM TURAN CAD. NO: 136A MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2816,6 +4361,21 @@
           <t xml:space="preserve"> ÜMİT MAH. 1411/7 SK.  NO: 4G BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2839,6 +4399,21 @@
           <t xml:space="preserve"> MANSUROĞLU MAH. ANKARA CAD. NO: 73/1 İÇ KAPI NO: 601 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2858,6 +4433,21 @@
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2881,6 +4471,21 @@
           <t>KEMALPAŞA                 MAHALLESİ 7416/1 SOKAK NO: 9A BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -2904,6 +4509,21 @@
           <t xml:space="preserve"> ANKARA CADDESI NO:102  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -2927,6 +4547,21 @@
           <t xml:space="preserve"> KAZIMDİRİK MAH. ANKARA CAD. BAHAR NO: 237 İÇ KAPI NO: 6 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -2950,6 +4585,21 @@
           <t>BADEMLER MAHALLESİ SEFERİHİSAR CADDESİ NO:60  URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -2973,6 +4623,21 @@
           <t>ADALET MAHALLESİ ANADOLU CADDESİ NO:41/081  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -2996,6 +4661,21 @@
           <t>MİMAR SİNAN MAHALLESİ IŞILAY SAYGIN SK. YILMAZ BLOK  NO: 15  İÇ KAPI NO: 3  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -3019,6 +4699,21 @@
           <t xml:space="preserve"> CÜNEYTBEY MAH. DEĞİRMEN SK.  NO: 2 MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -3042,6 +4737,21 @@
           <t>MANAVKUYU MAHALLESİ FATİH SULTAN MEHMET CADDESİ NO:78/1-B  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -3065,6 +4775,21 @@
           <t xml:space="preserve"> AKDENİZ MAHALLESİ ATATÜRK CAD. TUNÇ HAN APT.  NO: 162/701  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -3088,6 +4813,21 @@
           <t xml:space="preserve"> ADALET MAHALLESİ ANADOLU CAD. NO: 41/081 BAYRAKLI/İZMİR  / </t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -3111,6 +4851,21 @@
           <t>KAZIM DİRİK MAHALLESİ ÜNİVERSİTE CD. NO: 72  İÇ KAPI NO: 616 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -3134,6 +4889,21 @@
           <t xml:space="preserve"> 1420 SOKAK NO:108  KAT:4 DAİRE:401 KAHRAMANLAR / İZMİR</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -3157,6 +4927,21 @@
           <t xml:space="preserve"> SÜTÇÜLER MAH. GAZİ ATATÜRK CAD. NO: 15C İÇ KAPI NO: 1 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -3180,6 +4965,21 @@
           <t xml:space="preserve"> HIDIRLIK 80.YIL CUMHURİYET   NO:17/A-B SEFERİHİSAR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -3203,6 +5003,21 @@
           <t xml:space="preserve"> HIDIRBEYLİ MAH. 2579 SK. NO: 90 GERMENCİK / AYDIN  / </t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -3226,6 +5041,21 @@
           <t xml:space="preserve"> MİTHATPAŞA CADDESİ NO:878/1  GÖZTEPE KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -3249,6 +5079,21 @@
           <t>CUMHURİYET MAHALLESİ ADNAN MENDERES BULV. NO:55/1  ULUCAK KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -3272,6 +5117,21 @@
           <t>KEMALPAŞA OSB MAHALLESİ 41 SOKAK NO:10  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -3295,6 +5155,21 @@
           <t xml:space="preserve"> UMURBEY MAH. 1511 SK. NO: 3A KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -3318,6 +5193,21 @@
           <t>ADALET MAHALLESİ MANAS BULV. NO: 39  İÇ KAPI NO: 2511 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -3341,6 +5231,21 @@
           <t xml:space="preserve"> LİMANREİS MAH. SERDAR SK. NO: 22A NARLIDERE / İZMİR  / </t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -3364,6 +5269,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -3387,6 +5307,21 @@
           <t>ANSIZCA MAHALLESİ ANSIZCA KÖYÜ İZMİR ANKARA KÜME EVLERİ NO:311/1/1  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -3410,6 +5345,21 @@
           <t>KAZIMDİRİK MAHALLESİ 372 SOKAK SEVİNÇ GÜNERİ SİTESİ  NO: 77 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -3433,6 +5383,21 @@
           <t>ÇINAR MAHALLESİ 5003/2 SK. KÖRFEZ EĞİTİM VE HİZMET VAKFI SİTESİ  NO:7/12 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -3456,6 +5421,21 @@
           <t xml:space="preserve"> AYDIN MAH. 4308 SK. NO: 17-19 İÇ KAPI NO: 3 KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -3479,6 +5459,21 @@
           <t xml:space="preserve"> MANSUROĞLU MAH. 295/2 SK. EGE SUN PLAZA NO: 1/1 İÇ KAPI NO: 57 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -3502,6 +5497,21 @@
           <t xml:space="preserve"> ATIFBEY MAH. 5/3 SK.  NO: 5  İÇ KAPI NO: 4 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -3525,6 +5535,21 @@
           <t>ATIFBEY MAHALLESİ 5/3 SOK. NO:5/4  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -3548,6 +5573,21 @@
           <t>ADALET MAHALLESİ MANAS  BULVARI NO:47/B FOLKART TOWERS BLOK  İÇ KAPI NO:2601 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -3571,6 +5611,21 @@
           <t>ADALET MAHALLESİ MANAS BULV. FOLKART TOWERS BLOK  NO: 47B   BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -3594,6 +5649,21 @@
           <t>ADALET MAHALLESİ MANAS BULV. NO: 39  İÇ KAPI NO: 3408 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -3617,6 +5687,21 @@
           <t>AKSOY                     MAHALLESİ 1780 SK. ALEV BLOK  NO: 15  İÇ KAPI NO: 1  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -3636,6 +5721,21 @@
         </is>
       </c>
       <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -3659,6 +5759,21 @@
           <t xml:space="preserve"> 10038 SK. NO:3/3-E İ.A.S.O.B. ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -3682,6 +5797,21 @@
           <t>SIRA MAHALLESİ DÖRTYOL SK. NO:52  URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -3705,6 +5835,21 @@
           <t xml:space="preserve"> 865 SOK. NO:28/A KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -3728,6 +5873,21 @@
           <t xml:space="preserve"> 1145/4 SOKAK NO:19/A  YENİŞEHİR KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -3751,6 +5911,21 @@
           <t>BAĞYURDU YENİ MAHALLESİ SARI CEVİZ KÜME EVLERİ NO:35  DAİRE:1 KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -3774,6 +5949,21 @@
           <t>MANSUROĞLU MAHALLESİ 288/4 SK. NO: 9/1  İÇ KAPI NO: 93 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -3797,6 +5987,21 @@
           <t xml:space="preserve"> EFELER MAHALLESİ MENDERES CAD. OSMAN APT.  NO: 221 /1A/1A  BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -3820,6 +6025,21 @@
           <t>HALKAPINAR MAHALLESİ 1202/10 SOKAK NO:24  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -3843,6 +6063,21 @@
           <t xml:space="preserve"> AKDENİZ MAHALLESİ ŞEHİT FETHİBEY CAD. 99 BASAMAK İŞ MERKEZİ APT.  NO: 43/81  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -3866,6 +6101,21 @@
           <t xml:space="preserve"> ZAFER SB  AYHAN      EGE SERBEST BÖLGESİ ESBAŞ S-4 BİNASI  NO:/NO:10/2 GAZİEMİR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -3889,6 +6139,21 @@
           <t xml:space="preserve"> TERCAN CAD. NO:14  KISIKKÖY MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -3912,6 +6177,21 @@
           <t xml:space="preserve"> ALSANCAK MAH. 1476 SK. AKSOY PLAZA BLOK  NO: 2  İÇ KAPI NO: 61 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -3935,6 +6215,21 @@
           <t>GÖRECE CUMHURİYET MAHALLESİ CEMAL GÜRSEL BLV. NO: 9 MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -3958,6 +6253,21 @@
           <t>HALKAPINAR MAHALLESİ 1202/2 SOK. NO: 4 G KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -3981,6 +6291,21 @@
           <t xml:space="preserve"> KEMALPAŞA OSB MAHALLESİ İZMİR ANKARA ASFALTI NO:61  / </t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -4004,6 +6329,21 @@
           <t xml:space="preserve"> ATIFBEY MAH. 5/3 SK. NO: 5 İÇ KAPI NO: 4 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -4023,6 +6363,21 @@
         </is>
       </c>
       <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -4046,6 +6401,21 @@
           <t>HALKAPINAR MAHALLESİ 1203 SK. NO:13  DAİRE:1107 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -4069,6 +6439,21 @@
           <t xml:space="preserve"> KARACAOĞLAN MAHALLESİ 6170 SOK. NO:17/B  IŞIKKENT BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -4092,6 +6477,21 @@
           <t xml:space="preserve"> 1202/6 SOKAK NO:54  GIDA ÇARŞISI / İZMİR</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -4115,6 +6515,21 @@
           <t xml:space="preserve"> KAZIMDİRİK MAHALLESİ 372/16 SK. HALİL ATİLA SİT.  NO: 18  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -4138,6 +6553,21 @@
           <t>ADALET MAHALLESİ MANAS BLV. NO: 47 B/3406 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -4157,6 +6587,21 @@
         </is>
       </c>
       <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -4180,6 +6625,21 @@
           <t>KEMALPAŞA                 MAHALLESİ 7098/1 SOKAK NO:7  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -4203,6 +6663,21 @@
           <t xml:space="preserve"> HACILARKIRI CAD. NO:2/1  DOĞANLAR BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -4226,6 +6701,21 @@
           <t xml:space="preserve"> ZAFER MAH. 2358 SK. NO: 4 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -4249,6 +6739,21 @@
           <t>ADALET MAHALLESİ MANAS BULV. NO: 39  İÇ KAPI NO: 3408 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -4272,6 +6777,21 @@
           <t>KAZIM PAŞA MAHALLESİ EBE EMİNE ÖZKAN SOKAK NO:8/A  BAĞYURDU KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -4295,6 +6815,21 @@
           <t>75.YIL CUMHURİYET MAHALLESİ  ÖREN İZMİR CAD. NO:67/2 ÖREN 75.YIL CUMHURİYET MAH. ÖREN İZMİR CAD.  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -4318,6 +6853,21 @@
           <t xml:space="preserve"> HALİLBEYLİ MAH. KIRIM SK. NO: 3 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -4341,6 +6891,21 @@
           <t xml:space="preserve"> ATATÜRK MAHALLESİ NAMIK KEMAL CAD. NO:13/A GÜZELBAHÇE/İZMİR  / </t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -4364,6 +6929,21 @@
           <t xml:space="preserve"> İBRAHİM TURAN CAD. NO:8  KAT:3 MENDERES/İZMİR  / </t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -4387,6 +6967,21 @@
           <t xml:space="preserve"> EGEMENLİK MAH. 6106/21 SK.  NO: 14B BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -4410,6 +7005,21 @@
           <t>FİKRİ ALTAY               MAHALLESİ 6183 SK. NO:25/A  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -4433,6 +7043,21 @@
           <t xml:space="preserve"> ATATÜRK MAH. 910 SK.  NO: 2/1A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -4456,6 +7081,21 @@
           <t xml:space="preserve"> İZMİR ANKARA CAD. NO:311/1  ANSIZCA KÖYÜ KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -4479,6 +7119,21 @@
           <t>AKDENİZ                   MAHALLESİ CUMHURİYET BULVARI NO:87/12  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -4502,6 +7157,21 @@
           <t>KARACAOĞLAN MAHALLESİ BORNOVA CAD. NO: 12 /1/21 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -4525,6 +7195,21 @@
           <t>HALKAPINAR MAHALLESİ 1202 SOK. NO:61/F  YENİŞEHİR KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -4548,6 +7233,21 @@
           <t>DOĞANLAR MAHALLESİ HACILARKIRI CAD. NO:2/1/0  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -4571,6 +7271,21 @@
           <t>AHMET AĞA MAHALLESİ 856 SOKAK NO:7  KAT:8 DAİRE:804 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -4594,6 +7309,21 @@
           <t xml:space="preserve"> YAYLACIK MAH. 163 SK.  NO: 14  İÇ KAPI NO: 2 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -4613,6 +7343,21 @@
         </is>
       </c>
       <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -4636,6 +7381,21 @@
           <t xml:space="preserve"> ANKARA ASFALTI 26.KM KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -4659,6 +7419,21 @@
           <t>YAMANLAR MAHALLESİ 7353/14 SK. B BLOK  NO: 3/2  İÇ KAPI NO: 27 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -4682,6 +7457,21 @@
           <t xml:space="preserve"> NALDÖKEN MAH. 1259/1 SK.  NO: 4  İÇ KAPI NO: 1 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -4705,6 +7495,21 @@
           <t xml:space="preserve"> GAZİ BULVARI NO:87  KAT:2 DAİRE:201 ÇANKAYA / İZMİR</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -4728,6 +7533,21 @@
           <t xml:space="preserve"> KARACAOĞLAN MAHALLESİ 6170 SK.  NO: 9 14/14  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -4751,6 +7571,21 @@
           <t>ALAÇATI MAHALLESİ ALAÇATI CUMHURİYET  CAD. NO:31/A  ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -4774,6 +7609,21 @@
           <t>AOSB MAHALLESİ 10006/1 SK. NO:26  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -4797,6 +7647,21 @@
           <t xml:space="preserve"> EMREZ AKÇAY   NO:64/2/K.4 GAZİEMİR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -4820,6 +7685,21 @@
           <t>YEŞİLOVA                  MAHALLESİ 4162 SOKAK NO:45/A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -4843,6 +7723,21 @@
           <t xml:space="preserve"> KEMALPAŞA MAH. 7087/3 SK. HACI İBRAHİM DOĞAN İŞ MERKEZİ SİTESİ NO: 1/12 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -4866,6 +7761,21 @@
           <t xml:space="preserve"> 1202/6 SK. NO:24  YENİŞEHİR / İZMİR</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -4889,6 +7799,21 @@
           <t>ATIFBEY                   MAHALLESİ 66 SOKAK NO:12/9 B  BLOK Apt. GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -4912,6 +7837,21 @@
           <t>VATAN MAHALLESİ 9066 SK. NO:3 İÇ KAPI NO: 8 KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -4935,6 +7875,21 @@
           <t xml:space="preserve"> 10046 SOK. NO:16  A.O.S.B. ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -4958,6 +7913,21 @@
           <t>AOSB MAHALLESİ 10048 SK. NO:3/1  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -4981,6 +7951,21 @@
           <t xml:space="preserve"> KEMALPAŞA OSB MAH. 610 SK.  NO: 11 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -5004,6 +7989,21 @@
           <t xml:space="preserve"> ŞEHİTFETHİ BEY CADDESİ NO:32/5 PAMUKHAN PASAPORT KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -5027,6 +8027,21 @@
           <t xml:space="preserve"> AOSB MAH. 10040 SK. NO: 9 ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -5050,6 +8065,21 @@
           <t>SÜTÇÜLER MAHALLESİ ANKARA CADDESİ NO: 194 E KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -5073,6 +8103,21 @@
           <t xml:space="preserve"> KEMALPAŞA OSB MAH. İZMİR KEMALPAŞA ASFALTI CAD. NO: 19 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -5096,6 +8141,21 @@
           <t xml:space="preserve"> YUNUS EMRE MAH. 7521/1 SK.  NO: 3 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -5119,6 +8179,21 @@
           <t>EGEMENLİK MAHALLESİ 6106/21 SOKAK NO: 6A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -5142,6 +8217,21 @@
           <t>YENİŞEHİR                 MAHALLESİ 1019 SOKAK NO:4/M  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -5161,6 +8251,21 @@
         </is>
       </c>
       <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -5184,6 +8289,21 @@
           <t>KAZIMDİRİK MAHALLESİ SANAYI CADDESI NO: 33  İÇ KAPI NO: 106  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -5207,6 +8327,21 @@
           <t>EVKA-3                    MAHALLESİ 129/3 SOKAK NO:12/M  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -5230,6 +8365,21 @@
           <t xml:space="preserve"> 370 SOKAK NO:11/A  BAHÇELİEVLER KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -5253,6 +8403,21 @@
           <t xml:space="preserve"> KARACAOĞLAN MAH. 6172 SK. İZELTAŞ GALERİA NO: 10-5C BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -5272,6 +8437,21 @@
         </is>
       </c>
       <c r="E212" t="inlineStr"/>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -5295,6 +8475,21 @@
           <t>ÖREN 75. YIL CUMHURİYET MAHALLESİ İZMİR ANKARA CADDESİ NO: 633/1 KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -5318,6 +8513,21 @@
           <t>ÖREN 75.YIL CUMHURİYET MAHALLESİ NİF ÇAYI 2 SOKAK NO:9/4 AHMET ÖZEN BLOK DAİRE:1 KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -5341,6 +8551,21 @@
           <t>RAFETPAŞA                 MAHALLESİ 5365 SOKAK NO:2/A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -5364,6 +8589,21 @@
           <t>CUMHURİYET                MAHALLESİ 1595 SK. KAZIM SOP Apt.  NO: 225/404   KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -5387,6 +8627,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -5410,6 +8665,21 @@
           <t>MANSUROĞLU MAHALLESİ 288 SK. NO: 6  İÇ KAPI NO: 13 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -5433,6 +8703,21 @@
           <t>YENİKALE                  MAHALLESİ HIDIROĞLU SK. NO:9/A  NARLIDERE       / İZMİR</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -5456,6 +8741,21 @@
           <t>ALSANCAK MAHALLESİ KIBRIS ŞEHİTLERİ CAD. HÜMEYRA ÇİFTÇİ İŞHANI Apt.  NO: 148/303 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -5479,6 +8779,21 @@
           <t xml:space="preserve"> OSMANGAZİ  MAH. 576 SK. ÇAĞLA APARTMANI BLOK  NO: 44A BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -5502,6 +8817,21 @@
           <t>ATIFBEY MAHALLESİ 5/3 SOK. NO:1/301  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -5525,6 +8855,21 @@
           <t>EĞİTİM                    MAHALLESİ ŞEHİT KAMİL ÖZDEMİR SK. NO:13  DAİRE:1 BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -5548,6 +8893,21 @@
           <t xml:space="preserve"> KEMALPAŞA MAHALLESİ 7087 SK.  NO: 15 /12  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -5571,6 +8931,21 @@
           <t>KAZIMDİRİK MAHALLESİ ÜNİVERSİTE CAD. NO:72/110  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -5594,6 +8969,21 @@
           <t xml:space="preserve"> KAZIMDİRİK MAH. ÜNİVERSİTE CAD. NO: 72  İÇ KAPI NO: 616 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -5617,6 +9007,21 @@
           <t xml:space="preserve"> KAZIM DİRİK FEVZİ ÇAKMAK   NO:4/3 BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -5640,6 +9045,21 @@
           <t>ERGENE MAHALLESİ 540 SOK. NO:6/107  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -5663,6 +9083,21 @@
           <t xml:space="preserve"> YALI MAH. 176/1 SK.  NO: 2  İÇ KAPI NO: 8 GÜZELBAHÇE / İZMİR  / </t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -5686,6 +9121,21 @@
           <t>HALKAPINAR MAHALLESİ 1202/2 SOK. NO:31/103  KAT:8 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -5709,6 +9159,21 @@
           <t xml:space="preserve"> KÜÇÜK ÇİĞLİ MAH. 8708/1 SK. NO: 7B ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -5732,6 +9197,21 @@
           <t xml:space="preserve"> YALI MAH. 6523 SOK. NO:13/80  KARŞIYAKA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -5755,6 +9235,21 @@
           <t xml:space="preserve"> KARABAĞLAR MAH. 5758 SK. NO: 17-21 İÇ KAPI NO: 212 KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -5778,6 +9273,21 @@
           <t>ALTINTAŞ MAHALLESİ MANOLYA SOK. NO:93/A  URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -5801,6 +9311,21 @@
           <t xml:space="preserve"> 1489 NO:3  YENİŞEHİR / İZMİR</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -5824,6 +9349,21 @@
           <t xml:space="preserve"> BOSTANLI MAH. 1787/1 SK. EMİN NO: 32 İÇ KAPI NO: 8 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -5847,6 +9387,21 @@
           <t>ILICA MAHALLESİ ŞEHİT KEREM OĞUZ ERBAY SOKAK  MENEKŞE BLOK  NO: 6I  NARLIDERE       / İZMİR</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -5870,6 +9425,21 @@
           <t>ARMUTLU 85. YIL CUMHURİYET MAHALLESİ SANAYİ CAD. NO:55  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -5893,6 +9463,21 @@
           <t>MANSUROĞLU MAHALLESİ ANKARA CAD. NO:81  DAİRE:143 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -5916,6 +9501,21 @@
           <t>KAZIM PAŞA MAHALLESİ İZMİR CAD. NO:41  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -5935,6 +9535,21 @@
         </is>
       </c>
       <c r="E241" t="inlineStr"/>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -5958,6 +9573,21 @@
           <t xml:space="preserve"> 1082 SOKAK NO:1/D  YENİŞEHİR / İZMİR</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -5981,6 +9611,21 @@
           <t xml:space="preserve"> REİSDERE MAH. 6086 SK. NO: 5C ÇEŞME / İZMİR  / </t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -6004,6 +9649,21 @@
           <t xml:space="preserve"> 270/2 SK. NO:1/A  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -6027,6 +9687,21 @@
           <t xml:space="preserve"> ŞEHİT FETHİBEY CADDESİ NO:49  KAT:3 DAİRE:303 KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -6050,6 +9725,21 @@
           <t xml:space="preserve"> SEVGİ MAHALLESİ 907 SOKAK NO:13 GAZİEMİR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -6073,6 +9763,21 @@
           <t>CAMİKEBİR                 MAHALLESİ 48 SK. NO:1/3/1  SEFERİHİSAR     / İZMİR</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -6096,6 +9801,21 @@
           <t>ÇINAR                     MAHALLESİ 5003 SOKAK NO:2/2/404 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -6119,6 +9839,21 @@
           <t xml:space="preserve"> ZAFER SB MAH. NİLÜFER SK.  NO: 32  İÇ KAPI NO: 5 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -6142,6 +9877,21 @@
           <t xml:space="preserve"> 295/2 SOK. NO:1 B BLOK 52. GİRİŞİ KAT:3 DAİRE:330 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -6165,6 +9915,21 @@
           <t>ERZENE MAHALLESİ ANKARA CAD. EGE TEKNO PARK BLOK  NO: 172/67  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -6188,6 +9953,21 @@
           <t xml:space="preserve"> GAZİER CAD. NO:478 YENİŞEHİR İŞ MERKEZİ KAT:3 DAİRE:313 YENİŞEHİR KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -6211,6 +9991,21 @@
           <t>AKDENİZ MAHALLESİ HALİT ZİYA BULVARI NO:52/13  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -6234,6 +10029,21 @@
           <t>ADALET MAHALLESİ MANAS BLV. NO: 47 B/2601 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -6257,6 +10067,21 @@
           <t xml:space="preserve"> SÜTÇÜLER MAHALLESİ AKEVLER CAD.  NO: 85 A  KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -6280,6 +10105,21 @@
           <t xml:space="preserve"> ARMUTLU 85.YIL CUMHURİYET MAH. HAYVANKIRAN KÜME EVLERİ NO: 79/2A İÇ KAPI NO: 1 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -6303,6 +10143,21 @@
           <t xml:space="preserve"> BAĞYURDU YENİ MAH. İZMİR ANKARA CAD.  NO: 608/1  İÇ KAPI NO: 1 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -6326,6 +10181,21 @@
           <t>ALSANCAK MAHALLESİ ATATÜRK CAD. LİMAN Apt.  NO: 386/401 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -6349,6 +10219,21 @@
           <t xml:space="preserve"> ADALET MAH. ŞEHİT POLİS FETHİ SEKİN CAD. NO: 4 İÇ KAPI NO: 93 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -6372,6 +10257,21 @@
           <t>SOĞUKPINAR MAHALLESİ BELEDIYE CADDESI NO:21  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -6395,6 +10295,21 @@
           <t xml:space="preserve"> AKDENİZ MAH. ATATÜRK CAD. ANADOLU SIGORTA NO: 92 İÇ KAPI NO: 31 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -6418,6 +10333,21 @@
           <t xml:space="preserve"> SEKİZ EYLÜL MAH. 99/1 SK. NO: 1A KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -6441,6 +10371,21 @@
           <t xml:space="preserve"> ÇINARLI MAHALLESİ OZAN ABAY CAD. B APT.  NO: 10/123  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -6464,6 +10409,21 @@
           <t>CÜNEYTBEY MAHALLESİ 602 SOK. NO:2/A  MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -6487,6 +10447,21 @@
           <t>HALKAPINAR MAHALLESİ 1202/1 SK. NO:69/613 İNŞAATÇILAR İŞHANI Apt.  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -6510,6 +10485,21 @@
           <t xml:space="preserve"> AOSB MAH. 10038 SK. NO: 3/3 ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -6533,6 +10523,21 @@
           <t>ÇINARLI                   MAHALLESİ OZAN ABAY CADDESİ NO:10/133  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -6552,6 +10557,21 @@
         </is>
       </c>
       <c r="E268" t="inlineStr"/>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -6575,6 +10595,21 @@
           <t xml:space="preserve"> ADALET MAH. ANADOLU CAD. MEGAPOL TOWER BLOK  NO: 41  İÇ KAPI NO: 091 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -6598,6 +10633,21 @@
           <t>HALİLBEYLİ MAHALLESİ  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -6621,6 +10671,21 @@
           <t xml:space="preserve"> KAZIMDİRİK MAHALLESİ 296 SK.  NO: 8/205  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -6644,6 +10709,21 @@
           <t>ATIFBEY                   MAHALLESİ 72 SOKAK  PALMİYE BLOK NO: 7 İÇ KAPI NO: 14 GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -6667,6 +10747,21 @@
           <t xml:space="preserve"> ESENYALI MAHALLESİ 108/1 SK. ALİ RIZA BEY APT.  NO: 3/1  KARABAĞLAR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -6690,6 +10785,21 @@
           <t xml:space="preserve"> MANSUROĞLU MAH. 288/4 SK. NO: 10 İÇ KAPI NO: 48 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -6713,6 +10823,21 @@
           <t xml:space="preserve"> 1420  SK. NO:108  KAT:4 DAİRE:401 ALSANCAK / İZMİR</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -6736,6 +10861,21 @@
           <t xml:space="preserve"> MURAT REİS MAH. ŞEHİT CEYSU CEYLAN SK. HASAN BEY NO: 56 İÇ KAPI NO: 4 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -6759,6 +10899,21 @@
           <t xml:space="preserve"> YELALTI MAH. NUR DİKMEN CAD. NO: 6 İÇ KAPI NO: 3 URLA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -6782,6 +10937,21 @@
           <t xml:space="preserve"> BUCAOSB MAH. 2/22 SK.  NO: 13 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -6801,6 +10971,21 @@
         </is>
       </c>
       <c r="E279" t="inlineStr"/>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -6824,6 +11009,21 @@
           <t>KAZIMDİRİK MAHALLESİ 367/7 SK. NO: 14 /1/516 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -6847,6 +11047,21 @@
           <t xml:space="preserve"> AKDENİZ MAH. ŞEHİT FETHİBEY CAD. HERİS TOWER NO: 55 İÇ KAPI NO: 091 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -6870,6 +11085,21 @@
           <t>BUCAOSB MAHALLESİ 2/22 SOKAK NO:13  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -6893,6 +11123,21 @@
           <t xml:space="preserve"> İSMET KAPTAN MAH. GAZİ BUL. CENGİZ HAN İŞ MRK. NO: 116 İÇ KAPI NO: 704 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -6916,6 +11161,21 @@
           <t xml:space="preserve"> YUKARIKIZILCA KIRAVLISU KÜME EVLERİ   NO:5/B KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -6939,6 +11199,21 @@
           <t>GÜRPINAR MAHALLESİ 7232/8 SOKAK NO:48/A AY-KOOP SİT. BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -6962,6 +11237,21 @@
           <t>ZAFER MAHALLESİ 2372 SOKAK FADİME TOKAÇ BLOK  NO: 1A BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -6985,6 +11275,21 @@
           <t xml:space="preserve"> 1145/5 SOKAK NO:3  KAT:1 YENİŞEHİR KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -7008,6 +11313,21 @@
           <t xml:space="preserve"> 1145/9      YENİŞEHİR  NO:2/2/21 KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -7031,6 +11351,21 @@
           <t>ADALET MAHALLESİ MANAS BUL. 47B İÇ KAPI NO:2809 FOLKART TOWERS BLOK BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -7054,6 +11389,21 @@
           <t>ADALET MAHALLESİ MANAS BLV. FOLKART TOWERS Apt.  NO: 39/3408 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -7077,6 +11427,21 @@
           <t xml:space="preserve"> KARACAOĞLAN MAHALLESİ 6166 SK.  NO: 32 /1C  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -7100,6 +11465,21 @@
           <t xml:space="preserve"> ESENTEPE MAH. 46/24 SK. NO: 5 KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -7123,6 +11503,21 @@
           <t xml:space="preserve"> MERİÇ MAH. 5747/2 SK.  NO: 39  İÇ KAPI NO: B1 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -7146,6 +11541,21 @@
           <t xml:space="preserve"> 10040 SOKAK NO:15  A.O.S.B. ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -7169,6 +11579,21 @@
           <t xml:space="preserve"> SARILAR MAH. BEYLER YOLU KÜME EVLERİ NO: 170 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -7192,6 +11617,21 @@
           <t xml:space="preserve"> DEDEBAŞI MAHALLESİ 6106 SK.  NO: 3/4  KARŞIYAKA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -7215,6 +11655,21 @@
           <t xml:space="preserve"> FATİH SULTAN MEHMET CD. NO:29/3  KAT:1 DAİRE:2 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -7238,6 +11693,21 @@
           <t xml:space="preserve"> FEVZİPAŞA BULVARI NO:14  KAT:4 DAİRE:406 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -7261,6 +11731,21 @@
           <t xml:space="preserve"> AOSB MAH. 10041 SK. NO: 16 ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -7284,6 +11769,21 @@
           <t xml:space="preserve"> 1875 SK. NO:2/1  DAİRE:3 KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -7307,6 +11807,21 @@
           <t>TURGUT MAHALLESİ PINAR SOKAK NO:6  SEFERİHİSAR     / İZMİR</t>
         </is>
       </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -7330,6 +11845,21 @@
           <t>MANSUROĞLU MAHALLESİ 1593/1  SOK. NO: 10  İÇ KAPI NO: 54 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -7353,6 +11883,21 @@
           <t>YENİŞEHİR                 MAHALLESİ 1145/1 SOKAK NO: 78  İÇ KAPI NO: MUSTAKİL KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -7376,6 +11921,21 @@
           <t>KEMALPAŞA OSB. MAHALLESİ 8 SK. NO:6  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -7399,6 +11959,21 @@
           <t>İSMET KAPTAN              MAHALLESİ ŞEHİT NEVRES BULVARI DEREN PLAZA BLOK  NO: 10  İÇ KAPI NO: 11 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -7422,6 +11997,21 @@
           <t xml:space="preserve"> KOŞUKAVAK MAH. KAMİL TUNCA CAD. NO: 256A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -7445,6 +12035,21 @@
           <t>VİŞNELİ MAHALLESİ TORBALI CAD. NO:232/1  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -7468,6 +12073,21 @@
           <t xml:space="preserve"> UFUK MAH. 848 SK.  NO: 45A BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -7491,6 +12111,21 @@
           <t xml:space="preserve"> 1717        NO:NO:147/102/ KARŞIYAKA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -7514,6 +12149,21 @@
           <t xml:space="preserve"> CUMHURİYET 9 EYLÜL   NO:65/A ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -7537,6 +12187,21 @@
           <t>ADALET MAHALLESİ MANAS  NO: 39  İÇ KAPI NO: 3408  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -7560,6 +12225,21 @@
           <t xml:space="preserve"> KAHRAMANDERE MAH. 856 SK. Vİ SİTESİ NO: 7 GÜZELBAHÇE / İZMİR  / </t>
         </is>
       </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -7583,6 +12263,21 @@
           <t>LATİFE HANIM MAHALLESİ 7685 SK. NO:4  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -7606,6 +12301,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -7625,6 +12335,21 @@
         </is>
       </c>
       <c r="E315" t="inlineStr"/>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -7648,6 +12373,21 @@
           <t>TOKOĞLU MAHALLESİ 1056 SOKAK NO:2/H  KÜÇÜK SANAYİ SİTESİ ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -7671,6 +12411,21 @@
           <t xml:space="preserve"> 540 SOKAK NO:6/A AĞA MUSTAFABEY İŞ HANI BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -7694,6 +12449,21 @@
           <t>KARACAOĞLAN MAHALLESİ BORNOVA CAD. NO: 7 /2C/0 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -7713,6 +12483,21 @@
         </is>
       </c>
       <c r="E319" t="inlineStr"/>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -7736,6 +12521,21 @@
           <t>YAKA MAHALLESİ ERDOĞAN KER CAD. NO: 17  İÇ KAPI NO: 1 URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -7759,6 +12559,21 @@
           <t xml:space="preserve"> AKDENİZ MAHALLESİ ATATÜRK CAD. TUNÇ HAN APT.  NO: 162/701  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -7782,6 +12597,21 @@
           <t xml:space="preserve"> ÜMİT MAH. 1411/7 SK. NO: 4G BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -7805,6 +12635,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS BLOK  NO: 47B  İÇ KAPI NO: 2809 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -7828,6 +12673,21 @@
           <t xml:space="preserve"> MANSUROĞLU MAHALLESİ 288/6 SK. YURT İŞ MERK. APT.  NO: 11/21  BAYRAKLI/İZMİR  / </t>
         </is>
       </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -7851,6 +12711,21 @@
           <t xml:space="preserve"> AKDENİZ   GAZİ OSMAN PAŞA NO:NO:10/1 /  41-51   KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -7874,6 +12749,21 @@
           <t xml:space="preserve"> 40 SK. NO:89/14 KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -7897,6 +12787,21 @@
           <t>KEMALPAŞA OSB MAHALLESİ ANSIZCA SANAYİ SİTESİ (KÜME EVLER) NO:339/1  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -7920,6 +12825,21 @@
           <t>KARACAOĞLAN MAHALLESİ 6157/3 SOKAK NO: 2 B BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -7943,6 +12863,21 @@
           <t xml:space="preserve"> ANKARA ASFALTI NO:89/21 PINAR ET ÖNÜ ALİ KOÇER SİTESİ ULUCAK KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -7966,6 +12901,21 @@
           <t>KUYUCAK MAHALLESİ KUYUCAK YOLU KÜME EVLERİ NO:212/1B  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -7989,6 +12939,21 @@
           <t xml:space="preserve"> BOSTANLI   İSMET YAZAR   NO:N:19 D:1 KARŞIYAKA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -8012,6 +12977,21 @@
           <t xml:space="preserve"> İŞÇİLER CADDESİ NO:73  YENİŞEHİR / İZMİR</t>
         </is>
       </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -8035,6 +13015,21 @@
           <t>GAZİPAŞA MAHALLESİ 9 EYLÜL CAD. NO: 41A MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -8058,6 +13053,21 @@
           <t xml:space="preserve"> CUMHURİYET BULVARI NO:24/602  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -8081,6 +13091,21 @@
           <t xml:space="preserve"> ALAYBEY MAH. ŞEHİT ASIM AKSOY CAD. AKTAN BLOK  NO: 47A KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -8100,6 +13125,21 @@
         </is>
       </c>
       <c r="E336" t="inlineStr"/>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -8123,6 +13163,21 @@
           <t xml:space="preserve"> YUNUS EMRE MAH. 7521/1 SK.  NO: 3A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -8144,6 +13199,21 @@
       <c r="E338" t="inlineStr">
         <is>
           <t>AKSOY                     MAHALLESİ 1735 SK. NO: 98  İÇ KAPI NO: 5 KARŞIYAKA       / İZMİR</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
         </is>
       </c>
     </row>

--- a/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 4. komite.xlsx
+++ b/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 4. komite.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J265"/>
+  <dimension ref="A1:I265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,11 +441,10 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="78" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
     <col width="47" customWidth="1" min="7" max="7"/>
     <col width="155" customWidth="1" min="8" max="8"/>
     <col width="116" customWidth="1" min="9" max="9"/>
-    <col width="52" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -476,7 +475,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Meslek Grubu Sayı</t>
+          <t>Meslek Grubu Numarası</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -492,11 +491,6 @@
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Tescilli Adresi</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Meslek Grubu</t>
         </is>
       </c>
     </row>
@@ -542,11 +536,6 @@
           <t>RÜSTEM MAHALLESİ 2018 SK. NO: 120/1 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -590,11 +579,6 @@
           <t>KEMALPAŞA MAH. 7412 SK. NO: 4 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -638,11 +622,6 @@
           <t>AOSB MAHALLESİ 10006/1 SK. NO: 19 İÇ KAPI NO: 0 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -686,11 +665,6 @@
           <t>MANSUROĞLU MAHALLESİ 269 SOK. NO:5 KAT:1 DAİRE:1 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -734,11 +708,6 @@
           <t>YAYLACIK MAHALLESİ ERDEM CADDESI NO:134 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -782,11 +751,6 @@
           <t>KOZAĞAÇ MAHALLESİ ÖZMEN CADDESI NO:39/A HACI HABİL BLOK BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -830,11 +794,6 @@
           <t>KAZIMDİRİK MAH. 296/2 SK. NO: 33 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -878,11 +837,6 @@
           <t>FATİH MAH. 1207 SK. NO: 1/1 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -926,11 +880,6 @@
           <t>IŞIKLAR MAHALLESİ AYDINLAR CAD. NO: 61 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -974,11 +923,6 @@
           <t>YAYLACIK MAH. 163 SK. NO: 14 İÇ KAPI NO: 2 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1022,11 +966,6 @@
           <t>MANSUROĞLU MAHALLESİ 288/4 SK. NO: 10/44 BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1070,11 +1009,6 @@
           <t>YALI MAHALLESİ 6523 SOKAK NO: 32B İÇ KAPI NO: 312 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1118,11 +1052,6 @@
           <t>KARACAOĞLAN MAHALLESİ 6157/3 SOKAK NO: 2 B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1166,11 +1095,6 @@
           <t>CÜNEYT BEY MAHALLESİ DOĞAN SK. NO: 37A MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1214,11 +1138,6 @@
           <t>EGEMENLİK MAH. 6106/15 SK. NO: 4 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1262,11 +1181,6 @@
           <t>EGEMENLİK MAH. 6106/51 SK. SS.GERİ KAZ.KOOP. SİTESİ NO: 19 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1310,11 +1224,6 @@
           <t>SEKİZEYLÜL MAHALLESİ NO:108/D KÜPLÜCE ALTI KÜME EVLERİ KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1358,11 +1267,6 @@
           <t>ATIFBEY MAH. 67 SK. NO: 33 İÇ KAPI NO: 59 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1406,11 +1310,6 @@
           <t>GÖLCÜKLER MAH. CUMAOVASI CAD. NO: 65/2 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1454,11 +1353,6 @@
           <t>İSMET KAPTAN MAH. ŞAİR EŞREF BUL. YÖRSAN İŞMERKEZİ BLOK NO: 26 İÇ KAPI NO: 12 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1502,11 +1396,6 @@
           <t>DONANMACI MAHALLESİ YALI BUL. GÜLEÇ BLOK NO: 238 İÇ KAPI NO: 2 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1550,11 +1439,6 @@
           <t>ADALET MAHALLESİ MANAS BULVARI NO:39 İÇ KAPI NO: 3408 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1598,11 +1482,6 @@
           <t>LİMANREİS MAHALLESİ SERDAR SK. NO: 22 İÇ KAPI NO: 1 NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1646,11 +1525,6 @@
           <t>ŞİRİNTEPE MAHALLESİ ANADOLU CADDESI NO:778/A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1694,11 +1568,6 @@
           <t>TUNA MAHALLESİ 1690 SK. NO:33/1 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1742,11 +1611,6 @@
           <t>ARAP HASAN MAHALLESİ İNÖNÜ CAD. NO: 335A İÇ KAPI NO: A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1790,11 +1654,6 @@
           <t>MANSUROĞLU MAHALLESİ 288/7 SOK. HASAN EFENDI SİTESİ NO: 1 İÇ KAPI NO: 6 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1838,11 +1697,6 @@
           <t>ŞEMİKLER MAHALLESİ 6182 SK. NO:95/1B KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1886,11 +1740,6 @@
           <t>KEMALPAŞA OSB MAHALLESİ SANAYİ CAD NO:34 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1934,11 +1783,6 @@
           <t>KARACAOĞLAN MAHALLESİ KEMALPAŞA CAD. NO:313 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1982,11 +1826,6 @@
           <t>ALAYBEY MAHALLESİ 1675 SK. NO:52/1 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2030,11 +1869,6 @@
           <t>TERSANE MAHALLESİ 1671 SOKAK NO:21/1 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2078,11 +1912,6 @@
           <t>ADALET MAHALLESİ MANAS BULV. FOLKART TOWERS BLOK NO: 47B İÇ KAPI NO:2809 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2126,11 +1955,6 @@
           <t>MEVLANA MAHALLESİ 1724 SOKAK NO:18 DAİRE:3 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2174,11 +1998,6 @@
           <t>KARACAOĞLAN MAH. 6157/3 SK. NO:2/D BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2222,11 +2041,6 @@
           <t>ALSANCAK MAHALLESİ 1478 SOKAK NO:8/52 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2270,11 +2084,6 @@
           <t>HARMANDALI GAZİ MUSTAFA KEMAL ATATÜRK MAHALLESİ 9 EYLÜL CAD. NO: 65A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2318,11 +2127,6 @@
           <t>KÖRFEZ MAHALLESİ 7384/5 SOK. A Apt. NO: 1/12 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2366,11 +2170,6 @@
           <t>BAHAR MAHALLESİ ESKİİZMİR CAD. NO:182 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2414,11 +2213,6 @@
           <t>GAZİ MAHALLESİ ÖNDER CAD. NO: 91 A GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2462,11 +2256,6 @@
           <t>TUNA MAHALLESİ 1690 SK. NO: 24 A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2510,11 +2299,6 @@
           <t>YENİGÜN MAHALLESİ FEVZİPAŞA BULVARI NO:116 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2558,11 +2342,6 @@
           <t>TORASAN MAH. ÇEŞME URLA İZMİR ASFALTI CAD. NO: 362/1 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2606,11 +2385,6 @@
           <t>ADALET MAH. MAHALLESİ MANAS BLV NO: 39 İÇ KAPI NO: 3408 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2654,11 +2428,6 @@
           <t>KEMALPAŞA OSB MAH. İZMİR KEMALPAŞA ASFALTI CAD. NO: 19 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2702,11 +2471,6 @@
           <t>ADALET MAHALLESİ MANAS BLV. NO: 47 B/2601 BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J47" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2750,11 +2514,6 @@
           <t>CÜNEYTBEY MAH. İBRAHİM TURAN CAD. NO: 60A MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2798,11 +2557,6 @@
           <t>8 EYLÜL MAHALLESİ ÖTEYAKA MEVKİİ KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2846,11 +2600,6 @@
           <t>AKDENİZ MAHALLESİ AKDENİZ CADDESİ NO:1 REYENT IŞ MERKEZI BLOK İÇ KAPI NO: 301 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -2894,11 +2643,6 @@
           <t>IŞIKLAR MAH. AYDINLAR CAD. NO: 61 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -2942,11 +2686,6 @@
           <t>ADALET MAHALLESİ MANAS BUL. NO: 39 İÇ KAPI NO: 3408 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -2990,11 +2729,6 @@
           <t>SÜTÇÜLER MAHALLESİ AKEVLER CAD. NO: 85 /1 KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3038,11 +2772,6 @@
           <t>ARMUTLU 85.YIL CUMHURİYET MAH. HAYVANKIRAN KÜME EVLERİ NO: 79/2B İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3086,11 +2815,6 @@
           <t>ZAFER MAHALLESİ ÇİFTLİK SK. NO: 2/ BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3134,11 +2858,6 @@
           <t>BASIN SİTESİ MAHALLESİ 173/4 SOK. NO:24 FAİK BEY BLOK DAİRE:7 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3182,11 +2901,6 @@
           <t>ABDİ İPEKÇİ MAHALLESİ 3713 SK. NO: 9B KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J57" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3230,11 +2944,6 @@
           <t>İSMET KAPTAN MAH. SEZER DOĞAN SK. TERHAN IŞ MERKEZI NO: 20 İÇ KAPI NO: 2 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J58" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3278,11 +2987,6 @@
           <t>GÖLCÜKLER MAHALLESİ SÜLEYMAN DEMİREL BLV. NO: 70 MENDERES/İZMİR</t>
         </is>
       </c>
-      <c r="J59" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3326,11 +3030,6 @@
           <t>KARACAOĞLAN MAHALLESİ BORNOVA CAD. ÖZTIM IŞ MERKEZI Apt. NO: 9 /2D BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J60" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3374,11 +3073,6 @@
           <t>KARACAOĞLAN MAHALLESİ 6172 SOKAK NO: 2/1 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3422,11 +3116,6 @@
           <t>ADALET MAH. 2132/2 SK. NO: 3 İÇ KAPI NO: 5 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J62" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3470,11 +3159,6 @@
           <t>YEŞİLÇAM MAHALLESİ KEMALPAŞA CADDESI İNAKO SİTESİ NO: 352/10G BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3518,11 +3202,6 @@
           <t>SEKİZ EYLÜL MAHALLESİ KÜPLÜCEALTI ( KÜME EVLER ) NO: 108 A/- KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3566,11 +3245,6 @@
           <t>MİMAR SİNAN MAHALLESİ ŞAİR EŞREF BULVARI NO:70/7 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J65" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3614,11 +3288,6 @@
           <t>ÇAMLIKULE MAH. GAZETECİ YAZAR İSMAİL SİVRİ BUL. NO: 187A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J66" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3662,11 +3331,6 @@
           <t>MANSUROĞLU MAHALLESİ 269/10 SOK. NO:3 İÇ KAPI NO: 5 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J67" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3710,11 +3374,6 @@
           <t>AOSB MAHALLESİ M.KEMAL ATATÜRK BLV. TERBAY Apt. NO: 65 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J68" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3758,11 +3417,6 @@
           <t>YUNUS EMRE MAH. 7402/1 SK. NO: 2 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J69" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3806,11 +3460,6 @@
           <t>ALAÇATI MAHALLESİ 18041 SK. NO: 35 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J70" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -3854,11 +3503,6 @@
           <t>ERGENE MAHALLESİ GEDİZ CAD. NO:24/23 9 NOLU ANA ÇOCUK SAĞ.VE AİLE PLAN.MER.BLOK BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J71" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -3902,11 +3546,6 @@
           <t>İSMET KAPTAN MAH. 1372 SK. TÜRKAY PLAZA NO: 13 İÇ KAPI NO: 7 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J72" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -3950,11 +3589,6 @@
           <t>ÇINARLI MAH. ANKARA ASFALTI CAD. NO: 15 İÇ KAPI NO: 391 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J73" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -3998,11 +3632,6 @@
           <t>EVKA-3 MAHALLESİ 127 SOKAK ELİT BLOK NO: 44 İÇ KAPI NO: 4 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J74" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4046,11 +3675,6 @@
           <t>ADALET MAH. ANADOLU CAD. MEGAPOL TOWER NO: 41 İÇ KAPI NO: 081 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J75" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4094,11 +3718,6 @@
           <t>MANSUROĞLU MAHALLESİ 1593/1 SOK İNŞAAT Apt. NO: 4/68 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J76" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4142,11 +3761,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2809 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J77" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4190,11 +3804,6 @@
           <t>ADALET MAH. ANADOLU CAD. MEGAPOL TOWER BLOK NO: 41 İÇ KAPI NO: 081 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4238,11 +3847,6 @@
           <t>YALI MAHALLESİ 6523 SK. NO: 32 B/515 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4286,11 +3890,6 @@
           <t>YAKA MAH. AHMET BESİM UYAL CAD. NO: 269C URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4334,11 +3933,6 @@
           <t>DEDEBAŞI MAHALLESİ 6052 SK. NO: 2/5 KARŞIYAKA/İZMİR</t>
         </is>
       </c>
-      <c r="J81" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4382,11 +3976,6 @@
           <t>ÇINARLI MAHALLESİ 1587/1 SOKAK NO:2/6 İÇ KAPI NO: 2101 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J82" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4430,11 +4019,6 @@
           <t>İSMET KAPTAN MAHALLESİ GAZİ OSMAN PAŞA BULVARI NO:7/Z17 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J83" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4478,11 +4062,6 @@
           <t>YILDIRIM BEYAZIT MAHALLESİ 5126 SK. NO: 32 A BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J84" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4526,11 +4105,6 @@
           <t>YILDIRIM BEYAZIT MAHALLESİ 5126 SK. NO: 32 B BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J85" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -4574,11 +4148,6 @@
           <t>YALI MAHALLESİ 6518/6 SK. İNŞAAT APT. NO: 1/6 KARŞIYAKA/İZMİR</t>
         </is>
       </c>
-      <c r="J86" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -4622,11 +4191,6 @@
           <t>CÜNEYT BEY MAHALLESİ 639 SOK. NO:18/D NO:2 MENDERES/İZMİR</t>
         </is>
       </c>
-      <c r="J87" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -4670,11 +4234,6 @@
           <t>CÜNEYTBEY MAH. İBRAHİM TURAN CAD. NO: 136A MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J88" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -4718,11 +4277,6 @@
           <t>ÜMİT MAH. 1411/7 SK. NO: 4G BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J89" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -4766,11 +4320,6 @@
           <t>MANSUROĞLU MAH. ANKARA CAD. NO: 73/1 İÇ KAPI NO: 601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J90" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -4814,11 +4363,6 @@
           <t>KEMALPAŞA MAHALLESİ 7416/1 SOKAK NO: 9A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J91" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -4862,11 +4406,6 @@
           <t>KAZIMDİRİK MAH. ANKARA CAD. BAHAR NO: 237 İÇ KAPI NO: 6 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J92" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -4910,11 +4449,6 @@
           <t>BADEMLER MAHALLESİ SEFERİHİSAR CADDESİ NO:60 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J93" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -4958,11 +4492,6 @@
           <t>ADALET MAHALLESİ ANADOLU CADDESİ NO:41/081 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J94" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5006,11 +4535,6 @@
           <t>MİMAR SİNAN MAHALLESİ IŞILAY SAYGIN SK. YILMAZ BLOK NO: 15 İÇ KAPI NO: 3 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5054,11 +4578,6 @@
           <t>CÜNEYTBEY MAH. DEĞİRMEN SK. NO: 2 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J96" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5102,11 +4621,6 @@
           <t>MANAVKUYU MAHALLESİ FATİH SULTAN MEHMET CADDESİ NO:78/1-B BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J97" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5150,11 +4664,6 @@
           <t>AKDENİZ MAHALLESİ ATATÜRK CAD. TUNÇ HAN APT. NO: 162/701 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J98" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5198,11 +4707,6 @@
           <t>ADALET MAHALLESİ ANADOLU CAD. NO: 41/081 BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J99" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5246,11 +4750,6 @@
           <t>KAZIM DİRİK MAHALLESİ ÜNİVERSİTE CD. NO: 72 İÇ KAPI NO: 616 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J100" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5294,11 +4793,6 @@
           <t>SÜTÇÜLER MAH. GAZİ ATATÜRK CAD. NO: 15C İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J101" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5342,11 +4836,6 @@
           <t>CUMHURİYET MAHALLESİ ADNAN MENDERES BULV. NO:55/1 ULUCAK KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J102" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5390,11 +4879,6 @@
           <t>KEMALPAŞA OSB MAHALLESİ 41 SOKAK NO:10 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J103" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5438,11 +4922,6 @@
           <t>UMURBEY MAH. 1511 SK. NO: 3A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J104" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -5486,11 +4965,6 @@
           <t>ADALET MAHALLESİ MANAS BULV. NO: 39 İÇ KAPI NO: 2511 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J105" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -5534,11 +5008,6 @@
           <t>LİMANREİS MAH. SERDAR SK. NO: 22A NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J106" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -5582,11 +5051,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J107" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -5630,11 +5094,6 @@
           <t>ANSIZCA MAHALLESİ ANSIZCA KÖYÜ İZMİR ANKARA KÜME EVLERİ NO:311/1/1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J108" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -5678,11 +5137,6 @@
           <t>KAZIMDİRİK MAHALLESİ 372 SOKAK SEVİNÇ GÜNERİ SİTESİ NO: 77 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J109" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -5726,11 +5180,6 @@
           <t>ÇINAR MAHALLESİ 5003/2 SK. KÖRFEZ EĞİTİM VE HİZMET VAKFI SİTESİ NO:7/12 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J110" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -5774,11 +5223,6 @@
           <t>AYDIN MAH. 4308 SK. NO: 17-19 İÇ KAPI NO: 3 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J111" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -5822,11 +5266,6 @@
           <t>MANSUROĞLU MAH. 295/2 SK. EGE SUN PLAZA NO: 1/1 İÇ KAPI NO: 57 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J112" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -5870,11 +5309,6 @@
           <t>ATIFBEY MAH. 5/3 SK. NO: 5 İÇ KAPI NO: 4 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J113" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -5918,11 +5352,6 @@
           <t>ATIFBEY MAHALLESİ 5/3 SOK. NO:5/4 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J114" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -5966,11 +5395,6 @@
           <t>ADALET MAHALLESİ MANAS BULVARI NO:47/B FOLKART TOWERS BLOK İÇ KAPI NO:2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J115" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6014,11 +5438,6 @@
           <t>ADALET MAHALLESİ MANAS BULV. FOLKART TOWERS BLOK NO: 47B BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J116" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6062,11 +5481,6 @@
           <t>ADALET MAHALLESİ MANAS BULV. NO: 39 İÇ KAPI NO: 3408 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J117" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6110,11 +5524,6 @@
           <t>AKSOY MAHALLESİ 1780 SK. ALEV BLOK NO: 15 İÇ KAPI NO: 1 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J118" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6158,11 +5567,6 @@
           <t>SIRA MAHALLESİ DÖRTYOL SK. NO:52 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J119" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6206,11 +5610,6 @@
           <t>BAĞYURDU YENİ MAHALLESİ SARI CEVİZ KÜME EVLERİ NO:35 DAİRE:1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J120" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6254,11 +5653,6 @@
           <t>MANSUROĞLU MAHALLESİ 288/4 SK. NO: 9/1 İÇ KAPI NO: 93 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6302,11 +5696,6 @@
           <t>EFELER MAHALLESİ MENDERES CAD. OSMAN APT. NO: 221 /1A/1A BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J122" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6350,11 +5739,6 @@
           <t>HALKAPINAR MAHALLESİ 1202/10 SOKAK NO:24 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -6398,11 +5782,6 @@
           <t>AKDENİZ MAHALLESİ ŞEHİT FETHİBEY CAD. 99 BASAMAK İŞ MERKEZİ APT. NO: 43/81 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -6446,11 +5825,6 @@
           <t>ALSANCAK MAH. 1476 SK. AKSOY PLAZA BLOK NO: 2 İÇ KAPI NO: 61 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -6494,11 +5868,6 @@
           <t>GÖRECE CUMHURİYET MAHALLESİ CEMAL GÜRSEL BLV. NO: 9 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J126" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -6542,11 +5911,6 @@
           <t>HALKAPINAR MAHALLESİ 1202/2 SOK. NO: 4 G KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J127" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -6586,11 +5950,6 @@
           <t>KEMALPAŞA OSB MAHALLESİ İZMİR ANKARA ASFALTI NO:61</t>
         </is>
       </c>
-      <c r="J128" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -6634,11 +5993,6 @@
           <t>ATIFBEY MAH. 5/3 SK. NO: 5 İÇ KAPI NO: 4 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J129" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -6682,11 +6036,6 @@
           <t>HALKAPINAR MAHALLESİ 1203 SK. NO:13 DAİRE:1107 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J130" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -6730,11 +6079,6 @@
           <t>KARACAOĞLAN MAHALLESİ 6170 SOK. NO:17/B IŞIKKENT BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J131" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -6778,11 +6122,6 @@
           <t>KAZIMDİRİK MAHALLESİ 372/16 SK. HALİL ATİLA SİT. NO: 18 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J132" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -6826,11 +6165,6 @@
           <t>ADALET MAHALLESİ MANAS BLV. NO: 47 B/3406 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J133" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -6874,11 +6208,6 @@
           <t>KEMALPAŞA MAHALLESİ 7098/1 SOKAK NO:7 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J134" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -6922,11 +6251,6 @@
           <t>ZAFER MAH. 2358 SK. NO: 4 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J135" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -6970,11 +6294,6 @@
           <t>ADALET MAHALLESİ MANAS BULV. NO: 39 İÇ KAPI NO: 3408 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J136" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7018,11 +6337,6 @@
           <t>KAZIM PAŞA MAHALLESİ EBE EMİNE ÖZKAN SOKAK NO:8/A BAĞYURDU KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J137" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7066,11 +6380,6 @@
           <t>75.YIL CUMHURİYET MAHALLESİ ÖREN İZMİR CAD. NO:67/2 ÖREN 75.YIL CUMHURİYET MAH. ÖREN İZMİR CAD. KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J138" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7114,11 +6423,6 @@
           <t>HALİLBEYLİ MAH. KIRIM SK. NO: 3 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J139" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7162,11 +6466,6 @@
           <t>ATATÜRK MAHALLESİ NAMIK KEMAL CAD. NO:13/A GÜZELBAHÇE/İZMİR</t>
         </is>
       </c>
-      <c r="J140" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7210,11 +6509,6 @@
           <t>EGEMENLİK MAH. 6106/21 SK. NO: 14B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J141" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7258,11 +6552,6 @@
           <t>FİKRİ ALTAY MAHALLESİ 6183 SK. NO:25/A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J142" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -7306,11 +6595,6 @@
           <t>ATATÜRK MAH. 910 SK. NO: 2/1A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J143" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -7354,11 +6638,6 @@
           <t>AKDENİZ MAHALLESİ CUMHURİYET BULVARI NO:87/12 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J144" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -7402,11 +6681,6 @@
           <t>KARACAOĞLAN MAHALLESİ BORNOVA CAD. NO: 12 /1/21 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J145" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -7450,11 +6724,6 @@
           <t>HALKAPINAR MAHALLESİ 1202 SOK. NO:61/F YENİŞEHİR KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J146" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -7498,11 +6767,6 @@
           <t>DOĞANLAR MAHALLESİ HACILARKIRI CAD. NO:2/1/0 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J147" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -7546,11 +6810,6 @@
           <t>AHMET AĞA MAHALLESİ 856 SOKAK NO:7 KAT:8 DAİRE:804 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J148" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -7594,11 +6853,6 @@
           <t>YAYLACIK MAH. 163 SK. NO: 14 İÇ KAPI NO: 2 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J149" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -7642,11 +6896,6 @@
           <t>YAMANLAR MAHALLESİ 7353/14 SK. B BLOK NO: 3/2 İÇ KAPI NO: 27 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J150" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -7690,11 +6939,6 @@
           <t>NALDÖKEN MAH. 1259/1 SK. NO: 4 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J151" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -7738,11 +6982,6 @@
           <t>KARACAOĞLAN MAHALLESİ 6170 SK. NO: 9 14/14 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J152" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -7786,11 +7025,6 @@
           <t>ALAÇATI MAHALLESİ ALAÇATI CUMHURİYET CAD. NO:31/A ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J153" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -7834,11 +7068,6 @@
           <t>AOSB MAHALLESİ 10006/1 SK. NO:26 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J154" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -7882,11 +7111,6 @@
           <t>YEŞİLOVA MAHALLESİ 4162 SOKAK NO:45/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J155" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -7930,11 +7154,6 @@
           <t>KEMALPAŞA MAH. 7087/3 SK. HACI İBRAHİM DOĞAN İŞ MERKEZİ SİTESİ NO: 1/12 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J156" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -7978,11 +7197,6 @@
           <t>ATIFBEY MAHALLESİ 66 SOKAK NO:12/9 B BLOK Apt. GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J157" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8026,11 +7240,6 @@
           <t>VATAN MAHALLESİ 9066 SK. NO:3 İÇ KAPI NO: 8 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J158" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8074,11 +7283,6 @@
           <t>AOSB MAHALLESİ 10048 SK. NO:3/1 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J159" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8122,11 +7326,6 @@
           <t>KEMALPAŞA OSB MAH. 610 SK. NO: 11 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J160" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -8170,11 +7369,6 @@
           <t>AOSB MAH. 10040 SK. NO: 9 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J161" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -8218,11 +7412,6 @@
           <t>SÜTÇÜLER MAHALLESİ ANKARA CADDESİ NO: 194 E KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J162" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -8266,11 +7455,6 @@
           <t>KEMALPAŞA OSB MAH. İZMİR KEMALPAŞA ASFALTI CAD. NO: 19 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J163" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -8314,11 +7498,6 @@
           <t>YUNUS EMRE MAH. 7521/1 SK. NO: 3 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J164" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -8362,11 +7541,6 @@
           <t>EGEMENLİK MAHALLESİ 6106/21 SOKAK NO: 6A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J165" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -8410,11 +7584,6 @@
           <t>YENİŞEHİR MAHALLESİ 1019 SOKAK NO:4/M KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J166" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -8458,11 +7627,6 @@
           <t>KAZIMDİRİK MAHALLESİ SANAYI CADDESI NO: 33 İÇ KAPI NO: 106 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J167" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -8506,11 +7670,6 @@
           <t>EVKA-3 MAHALLESİ 129/3 SOKAK NO:12/M BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J168" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -8554,11 +7713,6 @@
           <t>KARACAOĞLAN MAH. 6172 SK. İZELTAŞ GALERİA NO: 10-5C BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J169" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -8602,11 +7756,6 @@
           <t>ÖREN 75. YIL CUMHURİYET MAHALLESİ İZMİR ANKARA CADDESİ NO: 633/1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J170" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -8650,11 +7799,6 @@
           <t>ÖREN 75.YIL CUMHURİYET MAHALLESİ NİF ÇAYI 2 SOKAK NO:9/4 AHMET ÖZEN BLOK DAİRE:1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J171" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -8698,11 +7842,6 @@
           <t>RAFETPAŞA MAHALLESİ 5365 SOKAK NO:2/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J172" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -8746,11 +7885,6 @@
           <t>CUMHURİYET MAHALLESİ 1595 SK. KAZIM SOP Apt. NO: 225/404 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J173" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -8794,11 +7928,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -8842,11 +7971,6 @@
           <t>MANSUROĞLU MAHALLESİ 288 SK. NO: 6 İÇ KAPI NO: 13 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J175" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -8890,11 +8014,6 @@
           <t>YENİKALE MAHALLESİ HIDIROĞLU SK. NO:9/A NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -8938,11 +8057,6 @@
           <t>ALSANCAK MAHALLESİ KIBRIS ŞEHİTLERİ CAD. HÜMEYRA ÇİFTÇİ İŞHANI Apt. NO: 148/303 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J177" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -8986,11 +8100,6 @@
           <t>OSMANGAZİ MAH. 576 SK. ÇAĞLA APARTMANI BLOK NO: 44A BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J178" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -9034,11 +8143,6 @@
           <t>ATIFBEY MAHALLESİ 5/3 SOK. NO:1/301 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -9082,11 +8186,6 @@
           <t>EĞİTİM MAHALLESİ ŞEHİT KAMİL ÖZDEMİR SK. NO:13 DAİRE:1 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -9130,11 +8229,6 @@
           <t>KEMALPAŞA MAHALLESİ 7087 SK. NO: 15 /12 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -9178,11 +8272,6 @@
           <t>KAZIMDİRİK MAHALLESİ ÜNİVERSİTE CAD. NO:72/110 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -9226,11 +8315,6 @@
           <t>KAZIMDİRİK MAH. ÜNİVERSİTE CAD. NO: 72 İÇ KAPI NO: 616 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -9274,11 +8358,6 @@
           <t>ERGENE MAHALLESİ 540 SOK. NO:6/107 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -9322,11 +8401,6 @@
           <t>YALI MAH. 176/1 SK. NO: 2 İÇ KAPI NO: 8 GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -9370,11 +8444,6 @@
           <t>HALKAPINAR MAHALLESİ 1202/2 SOK. NO:31/103 KAT:8 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -9418,11 +8487,6 @@
           <t>KÜÇÜK ÇİĞLİ MAH. 8708/1 SK. NO: 7B ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J187" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -9466,11 +8530,6 @@
           <t>YALI MAH. 6523 SOK. NO:13/80 KARŞIYAKA/İZMİR</t>
         </is>
       </c>
-      <c r="J188" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -9514,11 +8573,6 @@
           <t>KARABAĞLAR MAH. 5758 SK. NO: 17-21 İÇ KAPI NO: 212 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J189" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -9562,11 +8616,6 @@
           <t>ALTINTAŞ MAHALLESİ MANOLYA SOK. NO:93/A URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J190" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -9610,11 +8659,6 @@
           <t>BOSTANLI MAH. 1787/1 SK. EMİN NO: 32 İÇ KAPI NO: 8 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J191" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -9658,11 +8702,6 @@
           <t>ILICA MAHALLESİ ŞEHİT KEREM OĞUZ ERBAY SOKAK MENEKŞE BLOK NO: 6I NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J192" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -9706,11 +8745,6 @@
           <t>ARMUTLU 85. YIL CUMHURİYET MAHALLESİ SANAYİ CAD. NO:55 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J193" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -9754,11 +8788,6 @@
           <t>MANSUROĞLU MAHALLESİ ANKARA CAD. NO:81 DAİRE:143 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J194" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -9802,11 +8831,6 @@
           <t>KAZIM PAŞA MAHALLESİ İZMİR CAD. NO:41 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J195" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -9850,11 +8874,6 @@
           <t>REİSDERE MAH. 6086 SK. NO: 5C ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J196" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -9898,11 +8917,6 @@
           <t>SEVGİ MAHALLESİ 907 SOKAK NO:13 GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J197" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -9946,11 +8960,6 @@
           <t>CAMİKEBİR MAHALLESİ 48 SK. NO:1/3/1 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -9994,11 +9003,6 @@
           <t>ÇINAR MAHALLESİ 5003 SOKAK NO:2/2/404 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -10042,11 +9046,6 @@
           <t>ZAFER SB MAH. NİLÜFER SK. NO: 32 İÇ KAPI NO: 5 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J200" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -10090,11 +9089,6 @@
           <t>ERZENE MAHALLESİ ANKARA CAD. EGE TEKNO PARK BLOK NO: 172/67 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J201" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -10138,11 +9132,6 @@
           <t>AKDENİZ MAHALLESİ HALİT ZİYA BULVARI NO:52/13 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J202" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -10186,11 +9175,6 @@
           <t>ADALET MAHALLESİ MANAS BLV. NO: 47 B/2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J203" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -10234,11 +9218,6 @@
           <t>SÜTÇÜLER MAHALLESİ AKEVLER CAD. NO: 85 A KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -10282,11 +9261,6 @@
           <t>ARMUTLU 85.YIL CUMHURİYET MAH. HAYVANKIRAN KÜME EVLERİ NO: 79/2A İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J205" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -10330,11 +9304,6 @@
           <t>BAĞYURDU YENİ MAH. İZMİR ANKARA CAD. NO: 608/1 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -10378,11 +9347,6 @@
           <t>ALSANCAK MAHALLESİ ATATÜRK CAD. LİMAN Apt. NO: 386/401 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J207" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -10426,11 +9390,6 @@
           <t>ADALET MAH. ŞEHİT POLİS FETHİ SEKİN CAD. NO: 4 İÇ KAPI NO: 93 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J208" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -10474,11 +9433,6 @@
           <t>SOĞUKPINAR MAHALLESİ BELEDIYE CADDESI NO:21 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J209" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -10522,11 +9476,6 @@
           <t>AKDENİZ MAH. ATATÜRK CAD. ANADOLU SIGORTA NO: 92 İÇ KAPI NO: 31 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J210" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -10570,11 +9519,6 @@
           <t>SEKİZ EYLÜL MAH. 99/1 SK. NO: 1A KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J211" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -10618,11 +9562,6 @@
           <t>ÇINARLI MAHALLESİ OZAN ABAY CAD. B APT. NO: 10/123 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -10666,11 +9605,6 @@
           <t>CÜNEYTBEY MAHALLESİ 602 SOK. NO:2/A MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -10714,11 +9648,6 @@
           <t>HALKAPINAR MAHALLESİ 1202/1 SK. NO:69/613 İNŞAATÇILAR İŞHANI Apt. KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -10762,11 +9691,6 @@
           <t>AOSB MAH. 10038 SK. NO: 3/3 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -10810,11 +9734,6 @@
           <t>ÇINARLI MAHALLESİ OZAN ABAY CADDESİ NO:10/133 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -10858,11 +9777,6 @@
           <t>ADALET MAH. ANADOLU CAD. MEGAPOL TOWER BLOK NO: 41 İÇ KAPI NO: 091 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -10906,11 +9820,6 @@
           <t>HALİLBEYLİ MAHALLESİ KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -10954,11 +9863,6 @@
           <t>KAZIMDİRİK MAHALLESİ 296 SK. NO: 8/205 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J219" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -11002,11 +9906,6 @@
           <t>ATIFBEY MAHALLESİ 72 SOKAK PALMİYE BLOK NO: 7 İÇ KAPI NO: 14 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J220" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -11050,11 +9949,6 @@
           <t>ESENYALI MAHALLESİ 108/1 SK. ALİ RIZA BEY APT. NO: 3/1 KARABAĞLAR/İZMİR</t>
         </is>
       </c>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -11098,11 +9992,6 @@
           <t>MANSUROĞLU MAH. 288/4 SK. NO: 10 İÇ KAPI NO: 48 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J222" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -11146,11 +10035,6 @@
           <t>MURAT REİS MAH. ŞEHİT CEYSU CEYLAN SK. HASAN BEY NO: 56 İÇ KAPI NO: 4 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J223" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -11194,11 +10078,6 @@
           <t>YELALTI MAH. NUR DİKMEN CAD. NO: 6 İÇ KAPI NO: 3 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J224" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -11242,11 +10121,6 @@
           <t>BUCAOSB MAH. 2/22 SK. NO: 13 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J225" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -11290,11 +10164,6 @@
           <t>KAZIMDİRİK MAHALLESİ 367/7 SK. NO: 14 /1/516 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J226" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -11338,11 +10207,6 @@
           <t>AKDENİZ MAH. ŞEHİT FETHİBEY CAD. HERİS TOWER NO: 55 İÇ KAPI NO: 091 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J227" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -11386,11 +10250,6 @@
           <t>BUCAOSB MAHALLESİ 2/22 SOKAK NO:13 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J228" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -11434,11 +10293,6 @@
           <t>İSMET KAPTAN MAH. GAZİ BUL. CENGİZ HAN İŞ MRK. NO: 116 İÇ KAPI NO: 704 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J229" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -11482,11 +10336,6 @@
           <t>GÜRPINAR MAHALLESİ 7232/8 SOKAK NO:48/A AY-KOOP SİT. BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J230" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -11530,11 +10379,6 @@
           <t>ZAFER MAHALLESİ 2372 SOKAK FADİME TOKAÇ BLOK NO: 1A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J231" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -11578,11 +10422,6 @@
           <t>ADALET MAHALLESİ MANAS BUL. 47B İÇ KAPI NO:2809 FOLKART TOWERS BLOK BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J232" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -11626,11 +10465,6 @@
           <t>ADALET MAHALLESİ MANAS BLV. FOLKART TOWERS Apt. NO: 39/3408 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J233" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -11674,11 +10508,6 @@
           <t>KARACAOĞLAN MAHALLESİ 6166 SK. NO: 32 /1C BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -11722,11 +10551,6 @@
           <t>ESENTEPE MAH. 46/24 SK. NO: 5 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -11770,11 +10594,6 @@
           <t>MERİÇ MAH. 5747/2 SK. NO: 39 İÇ KAPI NO: B1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -11818,11 +10637,6 @@
           <t>SARILAR MAH. BEYLER YOLU KÜME EVLERİ NO: 170 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -11866,11 +10680,6 @@
           <t>DEDEBAŞI MAHALLESİ 6106 SK. NO: 3/4 KARŞIYAKA/İZMİR</t>
         </is>
       </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -11914,11 +10723,6 @@
           <t>AOSB MAH. 10041 SK. NO: 16 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -11962,11 +10766,6 @@
           <t>TURGUT MAHALLESİ PINAR SOKAK NO:6 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -12010,11 +10809,6 @@
           <t>MANSUROĞLU MAHALLESİ 1593/1 SOK. NO: 10 İÇ KAPI NO: 54 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J241" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -12058,11 +10852,6 @@
           <t>YENİŞEHİR MAHALLESİ 1145/1 SOKAK NO: 78 İÇ KAPI NO: MUSTAKİL KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J242" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
@@ -12106,11 +10895,6 @@
           <t>KEMALPAŞA OSB. MAHALLESİ 8 SK. NO:6 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J243" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
@@ -12154,11 +10938,6 @@
           <t>İSMET KAPTAN MAHALLESİ ŞEHİT NEVRES BULVARI DEREN PLAZA BLOK NO: 10 İÇ KAPI NO: 11 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J244" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
@@ -12202,11 +10981,6 @@
           <t>KOŞUKAVAK MAH. KAMİL TUNCA CAD. NO: 256A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J245" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
@@ -12250,11 +11024,6 @@
           <t>VİŞNELİ MAHALLESİ TORBALI CAD. NO:232/1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J246" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -12298,11 +11067,6 @@
           <t>UFUK MAH. 848 SK. NO: 45A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J247" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -12346,11 +11110,6 @@
           <t>ADALET MAHALLESİ MANAS NO: 39 İÇ KAPI NO: 3408 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J248" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -12394,11 +11153,6 @@
           <t>KAHRAMANDERE MAH. 856 SK. Vİ SİTESİ NO: 7 GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J249" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -12442,11 +11196,6 @@
           <t>LATİFE HANIM MAHALLESİ 7685 SK. NO:4 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J250" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -12490,11 +11239,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J251" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
@@ -12538,11 +11282,6 @@
           <t>TOKOĞLU MAHALLESİ 1056 SOKAK NO:2/H KÜÇÜK SANAYİ SİTESİ ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J252" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -12586,11 +11325,6 @@
           <t>KARACAOĞLAN MAHALLESİ BORNOVA CAD. NO: 7 /2C/0 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J253" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
@@ -12634,11 +11368,6 @@
           <t>YAKA MAHALLESİ ERDOĞAN KER CAD. NO: 17 İÇ KAPI NO: 1 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J254" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
@@ -12682,11 +11411,6 @@
           <t>AKDENİZ MAHALLESİ ATATÜRK CAD. TUNÇ HAN APT. NO: 162/701 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J255" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
@@ -12730,11 +11454,6 @@
           <t>ÜMİT MAH. 1411/7 SK. NO: 4G BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J256" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
@@ -12778,11 +11497,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS BLOK NO: 47B İÇ KAPI NO: 2809 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J257" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
@@ -12826,11 +11540,6 @@
           <t>MANSUROĞLU MAHALLESİ 288/6 SK. YURT İŞ MERK. APT. NO: 11/21 BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J258" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
@@ -12874,11 +11583,6 @@
           <t>KEMALPAŞA OSB MAHALLESİ ANSIZCA SANAYİ SİTESİ (KÜME EVLER) NO:339/1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J259" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
@@ -12922,11 +11626,6 @@
           <t>KARACAOĞLAN MAHALLESİ 6157/3 SOKAK NO: 2 B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J260" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -12970,11 +11669,6 @@
           <t>KUYUCAK MAHALLESİ KUYUCAK YOLU KÜME EVLERİ NO:212/1B KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J261" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
@@ -13018,11 +11712,6 @@
           <t>GAZİPAŞA MAHALLESİ 9 EYLÜL CAD. NO: 41A MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J262" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
@@ -13066,11 +11755,6 @@
           <t>ALAYBEY MAH. ŞEHİT ASIM AKSOY CAD. AKTAN BLOK NO: 47A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J263" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
@@ -13114,11 +11798,6 @@
           <t>YUNUS EMRE MAH. 7521/1 SK. NO: 3A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J264" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
@@ -13160,11 +11839,6 @@
       <c r="I265" s="2" t="inlineStr">
         <is>
           <t>AKSOY MAHALLESİ 1735 SK. NO: 98 İÇ KAPI NO: 5 KARŞIYAKA / İZMİR</t>
-        </is>
-      </c>
-      <c r="J265" s="2" t="inlineStr">
-        <is>
-          <t>04 - HUBUBAT BAKLİYAT YAĞLI TOHUMLAR VE YEM GRUBU</t>
         </is>
       </c>
     </row>
